--- a/data/product_names.xlsx
+++ b/data/product_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aarushi\Desktop\Automation\OpenCart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C73167-8B16-423B-9999-D5F01ECCB788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CDA2F3-96D6-4EF4-9D77-0071A8A91498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14DEB7A7-58F2-4B36-8AF6-12A8BF8F23E7}"/>
+    <workbookView xWindow="2415" yWindow="1455" windowWidth="10995" windowHeight="9465" xr2:uid="{14DEB7A7-58F2-4B36-8AF6-12A8BF8F23E7}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t xml:space="preserve">
 MacBook
@@ -53,14 +53,26 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Samsung Galaxy Tab 10.1
+    <t>Sony VAIO</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcxyz123
 </t>
   </si>
   <si>
-    <t>Sony VAIO</t>
-  </si>
-  <si>
-    <t>${product_name}</t>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>${search_keyword}</t>
+  </si>
+  <si>
+    <t>${expected_result}</t>
   </si>
 </sst>
 </file>
@@ -415,48 +427,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46F3E80-CD9A-41CE-8E21-195F89E66DE1}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
